--- a/source/reference_documents/templates/vendor process - AVCDL product mapping template.xlsx
+++ b/source/reference_documents/templates/vendor process - AVCDL product mapping template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/source/reference_documents/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24516CA3-254C-D64A-8DAE-82FCE71A42A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59796DD-0F35-6C40-B621-E0C1EDD250DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="9580" windowWidth="44220" windowHeight="27840" xr2:uid="{1C8FF072-BC4B-9747-8DA7-815499AF0FAF}"/>
+    <workbookView xWindow="13260" yWindow="9580" windowWidth="44220" windowHeight="27840" activeTab="2" xr2:uid="{1C8FF072-BC4B-9747-8DA7-815499AF0FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="434 req-AVCDL product" sheetId="1" r:id="rId1"/>
@@ -107,12 +107,6 @@
     <t>deployment plan</t>
   </si>
   <si>
-    <t>product-level security goals</t>
-  </si>
-  <si>
-    <t>product-level security requirements</t>
-  </si>
-  <si>
     <t>requirements phase gate</t>
   </si>
   <si>
@@ -1044,6 +1038,12 @@
   </si>
   <si>
     <t>rev 2</t>
+  </si>
+  <si>
+    <t>element-level security goals</t>
+  </si>
+  <si>
+    <t>element-level security requirements</t>
   </si>
 </sst>
 </file>
@@ -1523,6 +1523,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,16 +1574,19 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1647,6 +1683,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1680,69 +1743,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1765,9 +1765,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1805,7 +1805,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1911,7 +1911,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2053,7 +2053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2066,9 +2066,9 @@
   </sheetPr>
   <dimension ref="A1:BI123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7980" topLeftCell="A4"/>
-      <selection sqref="A1:D4"/>
+      <selection activeCell="U4" sqref="U4"/>
       <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -2100,115 +2100,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="68" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="76" t="s">
+      <c r="AE1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="78"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="90"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AQ1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="93"/>
       <c r="AU1" s="1"/>
-      <c r="AV1" s="68" t="s">
+      <c r="AV1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
       <c r="AY1" s="1"/>
-      <c r="AZ1" s="65" t="s">
+      <c r="AZ1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="67"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="78"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="BF1" s="1"/>
-      <c r="BG1" s="68" t="s">
+      <c r="BG1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
     </row>
     <row r="2" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="69">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="80">
         <v>1</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="3">
         <v>2</v>
       </c>
       <c r="H2" s="3">
         <v>3</v>
       </c>
-      <c r="I2" s="138">
+      <c r="I2" s="82">
         <v>4</v>
       </c>
-      <c r="J2" s="70"/>
+      <c r="J2" s="81"/>
       <c r="K2" s="4">
         <v>5</v>
       </c>
       <c r="L2" s="3">
         <v>6</v>
       </c>
-      <c r="M2" s="73">
+      <c r="M2" s="83">
         <v>7</v>
       </c>
-      <c r="N2" s="74"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="3">
         <v>8</v>
       </c>
@@ -2219,10 +2219,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="71">
+      <c r="S2" s="85">
         <v>1</v>
       </c>
-      <c r="T2" s="72"/>
+      <c r="T2" s="86"/>
       <c r="U2" s="6">
         <v>2</v>
       </c>
@@ -2236,11 +2236,11 @@
       <c r="Y2" s="4">
         <v>3</v>
       </c>
-      <c r="Z2" s="75">
+      <c r="Z2" s="87">
         <v>4</v>
       </c>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
       <c r="AC2" s="6">
         <v>5</v>
       </c>
@@ -2330,10 +2330,10 @@
       </c>
     </row>
     <row r="3" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="10">
         <v>1</v>
       </c>
@@ -2491,10 +2491,10 @@
       </c>
     </row>
     <row r="4" spans="1:61" s="20" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
@@ -2536,129 +2536,129 @@
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="AD4" s="18"/>
       <c r="AE4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AM4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AN4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AO4" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="AN4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="AP4" s="18"/>
       <c r="AQ4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AT4" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="AS4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="AU4" s="18"/>
       <c r="AV4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AW4" s="19" t="s">
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="AX4" s="19" t="s">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="BD4" s="18"/>
       <c r="BE4" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BF4" s="18"/>
       <c r="BG4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BH4" s="19" t="s">
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A5" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="BI4" s="19" t="s">
+      <c r="B5" s="97" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="C5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="D5" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="24"/>
@@ -2719,13 +2719,13 @@
       <c r="BI5" s="25"/>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
@@ -2786,13 +2786,13 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A7" s="83"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
@@ -2855,13 +2855,13 @@
       <c r="BI7" s="25"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
@@ -2922,13 +2922,13 @@
       <c r="BI8" s="25"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
@@ -2989,13 +2989,13 @@
       <c r="BI9" s="25"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -3056,13 +3056,13 @@
       <c r="BI10" s="24"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>9</v>
@@ -3127,13 +3127,13 @@
       <c r="BI11" s="24"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
@@ -3194,13 +3194,13 @@
       <c r="BI12" s="24"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
@@ -3261,15 +3261,15 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="85" t="s">
-        <v>77</v>
+      <c r="A14" s="95"/>
+      <c r="B14" s="97" t="s">
+        <v>75</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>9</v>
@@ -3334,13 +3334,13 @@
       <c r="BI14" s="24"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -3401,15 +3401,15 @@
       <c r="BI15" s="24"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
@@ -3470,13 +3470,13 @@
       <c r="BI16" s="24"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
@@ -3537,15 +3537,15 @@
       <c r="BI17" s="24"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
@@ -3610,15 +3610,15 @@
       <c r="BI18" s="24"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
@@ -3679,17 +3679,17 @@
       <c r="BI19" s="24"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="D20" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
@@ -3752,13 +3752,13 @@
       <c r="BI20" s="24"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
@@ -3819,13 +3819,13 @@
       <c r="BI21" s="24"/>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
@@ -3886,13 +3886,13 @@
       <c r="BI22" s="24"/>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
@@ -3955,13 +3955,13 @@
       <c r="BI23" s="24"/>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
@@ -4022,13 +4022,13 @@
       <c r="BI24" s="24"/>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
@@ -4089,13 +4089,13 @@
       <c r="BI25" s="24"/>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -4156,13 +4156,13 @@
       <c r="BI26" s="24"/>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A27" s="83"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -4223,13 +4223,13 @@
       <c r="BI27" s="24"/>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="86"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -4290,13 +4290,13 @@
       <c r="BI28" s="24"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -4357,13 +4357,13 @@
       <c r="BI29" s="24"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -4424,13 +4424,13 @@
       <c r="BI30" s="24"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A31" s="83"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
@@ -4491,13 +4491,13 @@
       <c r="BI31" s="24"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="86"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -4558,13 +4558,13 @@
       <c r="BI32" s="24"/>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
@@ -4625,13 +4625,13 @@
       <c r="BI33" s="24"/>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="86"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24"/>
@@ -4692,13 +4692,13 @@
       <c r="BI34" s="24"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="86"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24"/>
@@ -4759,13 +4759,13 @@
       <c r="BI35" s="24"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
@@ -4826,13 +4826,13 @@
       <c r="BI36" s="24"/>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24"/>
@@ -4893,13 +4893,13 @@
       <c r="BI37" s="24"/>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24"/>
@@ -4960,13 +4960,13 @@
       <c r="BI38" s="24"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="87"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
@@ -5027,15 +5027,15 @@
       <c r="BI39" s="24"/>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
@@ -5096,15 +5096,15 @@
       <c r="BI40" s="24"/>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="95"/>
+      <c r="B41" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
@@ -5167,13 +5167,13 @@
       <c r="BI41" s="24"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="89"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
@@ -5236,13 +5236,13 @@
       <c r="BI42" s="24"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="89"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
@@ -5305,13 +5305,13 @@
       <c r="BI43" s="24"/>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="89"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
@@ -5374,13 +5374,13 @@
       <c r="BI44" s="24"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="89"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
@@ -5443,13 +5443,13 @@
       <c r="BI45" s="24"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="24"/>
@@ -5512,13 +5512,13 @@
       <c r="BI46" s="24"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="89"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="24"/>
@@ -5581,13 +5581,13 @@
       <c r="BI47" s="24"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24"/>
@@ -5650,15 +5650,15 @@
       <c r="BI48" s="24"/>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="88" t="s">
+      <c r="A49" s="95"/>
+      <c r="B49" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="24"/>
@@ -5723,13 +5723,13 @@
       <c r="BI49" s="24"/>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="90"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
@@ -5857,17 +5857,17 @@
       <c r="BI51" s="26"/>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="99" t="s">
+      <c r="D52" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24"/>
@@ -5932,13 +5932,13 @@
       <c r="BI52" s="24"/>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A53" s="98"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
@@ -6003,15 +6003,15 @@
       <c r="BI53" s="24"/>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
@@ -6072,15 +6072,15 @@
       <c r="BI54" s="24"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A55" s="98"/>
-      <c r="B55" s="88" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
@@ -6143,13 +6143,13 @@
       </c>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A56" s="98"/>
-      <c r="B56" s="89"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
@@ -6212,13 +6212,13 @@
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A57" s="97"/>
-      <c r="B57" s="90"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
@@ -6344,17 +6344,17 @@
       <c r="BI58" s="26"/>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="D59" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
@@ -6417,15 +6417,15 @@
       <c r="BI59" s="24"/>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A60" s="98"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24"/>
@@ -6488,15 +6488,15 @@
       <c r="BI60" s="24"/>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A61" s="98"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
@@ -6561,15 +6561,15 @@
       <c r="BI61" s="24"/>
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A62" s="98"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="24"/>
@@ -6634,15 +6634,15 @@
       <c r="BI62" s="24"/>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A63" s="98"/>
-      <c r="B63" s="88" t="s">
+      <c r="A63" s="110"/>
+      <c r="B63" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
@@ -6709,13 +6709,13 @@
       <c r="BI63" s="24"/>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A64" s="98"/>
-      <c r="B64" s="90"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="24"/>
@@ -6782,15 +6782,15 @@
       <c r="BI64" s="24"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A65" s="98"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="24"/>
@@ -6863,15 +6863,15 @@
       <c r="BI65" s="24"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A66" s="97"/>
+      <c r="A66" s="109"/>
       <c r="B66" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="24"/>
@@ -7003,17 +7003,17 @@
       <c r="BI67" s="26"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A68" s="96" t="s">
+      <c r="A68" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="101" t="s">
+      <c r="D68" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="24"/>
@@ -7078,13 +7078,13 @@
       <c r="BI68" s="24"/>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A69" s="98"/>
-      <c r="B69" s="101"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="113"/>
       <c r="C69" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="24"/>
@@ -7149,15 +7149,15 @@
       <c r="BI69" s="24"/>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A70" s="98"/>
-      <c r="B70" s="101" t="s">
+      <c r="A70" s="110"/>
+      <c r="B70" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="24"/>
@@ -7220,13 +7220,13 @@
       <c r="BI70" s="24"/>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A71" s="98"/>
-      <c r="B71" s="101"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="113"/>
       <c r="C71" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24"/>
@@ -7291,15 +7291,15 @@
       <c r="BI71" s="24"/>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A72" s="98"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="24"/>
@@ -7362,15 +7362,15 @@
       <c r="BI72" s="24"/>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A73" s="98"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="24"/>
@@ -7433,15 +7433,15 @@
       <c r="BI73" s="24"/>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A74" s="98"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="24"/>
@@ -7504,15 +7504,15 @@
       <c r="BI74" s="24"/>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A75" s="98"/>
-      <c r="B75" s="101" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>217</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -7575,13 +7575,13 @@
       <c r="BI75" s="24"/>
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A76" s="98"/>
-      <c r="B76" s="101"/>
+      <c r="A76" s="110"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -7644,13 +7644,13 @@
       <c r="BI76" s="24"/>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A77" s="98"/>
-      <c r="B77" s="101"/>
+      <c r="A77" s="110"/>
+      <c r="B77" s="113"/>
       <c r="C77" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -7713,15 +7713,15 @@
       <c r="BI77" s="24"/>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A78" s="97"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -7784,17 +7784,17 @@
       <c r="BI78" s="24"/>
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="88" t="s">
+      <c r="D79" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="24"/>
@@ -7857,13 +7857,13 @@
       <c r="BI79" s="24"/>
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A80" s="98"/>
-      <c r="B80" s="90"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="102"/>
       <c r="C80" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="24"/>
@@ -7926,15 +7926,15 @@
       <c r="BI80" s="24"/>
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A81" s="98"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="24"/>
@@ -7997,15 +7997,15 @@
       <c r="BI81" s="24"/>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A82" s="98"/>
-      <c r="B82" s="101" t="s">
+      <c r="A82" s="110"/>
+      <c r="B82" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="24"/>
@@ -8068,13 +8068,13 @@
       <c r="BI82" s="24"/>
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A83" s="98"/>
-      <c r="B83" s="101"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="113"/>
       <c r="C83" s="44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="24"/>
@@ -8137,15 +8137,15 @@
       <c r="BI83" s="24"/>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A84" s="98"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="24"/>
@@ -8210,15 +8210,15 @@
       <c r="BI84" s="24"/>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A85" s="98"/>
-      <c r="B85" s="88" t="s">
+      <c r="A85" s="110"/>
+      <c r="B85" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C85" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="24"/>
@@ -8283,13 +8283,13 @@
       <c r="BI85" s="24"/>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A86" s="98"/>
-      <c r="B86" s="89"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="101"/>
       <c r="C86" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="24"/>
@@ -8354,13 +8354,13 @@
       <c r="BI86" s="24"/>
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A87" s="98"/>
-      <c r="B87" s="90"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="102"/>
       <c r="C87" s="44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="24"/>
@@ -8425,15 +8425,15 @@
       <c r="BI87" s="24"/>
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A88" s="98"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -8500,15 +8500,15 @@
       <c r="BI88" s="24"/>
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A89" s="98"/>
-      <c r="B89" s="88" t="s">
+      <c r="A89" s="110"/>
+      <c r="B89" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -8573,13 +8573,13 @@
       <c r="BI89" s="24"/>
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A90" s="98"/>
-      <c r="B90" s="89"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="101"/>
       <c r="C90" s="44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -8644,13 +8644,13 @@
       <c r="BI90" s="24"/>
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A91" s="98"/>
-      <c r="B91" s="89"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="101"/>
       <c r="C91" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -8715,13 +8715,13 @@
       <c r="BI91" s="24"/>
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A92" s="97"/>
-      <c r="B92" s="90"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="102"/>
       <c r="C92" s="44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -8786,17 +8786,17 @@
       <c r="BI92" s="24"/>
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A93" s="96" t="s">
+      <c r="A93" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="88" t="s">
+      <c r="D93" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>260</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
@@ -8859,13 +8859,13 @@
       <c r="BI93" s="24"/>
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A94" s="97"/>
-      <c r="B94" s="90"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="102"/>
       <c r="C94" s="44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -8991,17 +8991,17 @@
       <c r="BI95" s="26"/>
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A96" s="96" t="s">
+      <c r="A96" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="101" t="s">
+      <c r="D96" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -9066,13 +9066,13 @@
       <c r="BI96" s="24"/>
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A97" s="98"/>
-      <c r="B97" s="101"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="113"/>
       <c r="C97" s="44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
@@ -9137,15 +9137,15 @@
       <c r="BI97" s="24"/>
     </row>
     <row r="98" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="97"/>
+      <c r="A98" s="109"/>
       <c r="B98" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="C98" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
@@ -9207,17 +9207,17 @@
       <c r="BI98" s="24"/>
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A99" s="96" t="s">
+      <c r="A99" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="D99" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="C99" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>275</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -9280,15 +9280,15 @@
       <c r="BI99" s="24"/>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A100" s="98"/>
+      <c r="A100" s="110"/>
       <c r="B100" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -9355,15 +9355,15 @@
       <c r="BI100" s="24"/>
     </row>
     <row r="101" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="97"/>
+      <c r="A101" s="109"/>
       <c r="B101" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="46" t="s">
         <v>279</v>
-      </c>
-      <c r="C101" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>281</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -9425,17 +9425,17 @@
       <c r="BI101" s="24"/>
     </row>
     <row r="102" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="96" t="s">
+      <c r="A102" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="D102" s="46" t="s">
         <v>283</v>
-      </c>
-      <c r="C102" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>285</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -9498,15 +9498,15 @@
       <c r="BI102" s="24"/>
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A103" s="97"/>
+      <c r="A103" s="109"/>
       <c r="B103" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="C103" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -9632,17 +9632,17 @@
       <c r="BI104" s="26"/>
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A105" s="96" t="s">
+      <c r="A105" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="D105" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="24"/>
@@ -9705,15 +9705,15 @@
       <c r="BI105" s="24"/>
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A106" s="98"/>
+      <c r="A106" s="110"/>
       <c r="B106" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="24"/>
@@ -9776,15 +9776,15 @@
       <c r="BI106" s="24"/>
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A107" s="98"/>
+      <c r="A107" s="110"/>
       <c r="B107" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="24"/>
@@ -9847,15 +9847,15 @@
       <c r="BI107" s="24"/>
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A108" s="98"/>
-      <c r="B108" s="101" t="s">
+      <c r="A108" s="110"/>
+      <c r="B108" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="C108" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>301</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="24"/>
@@ -9918,13 +9918,13 @@
       <c r="BI108" s="24"/>
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A109" s="98"/>
-      <c r="B109" s="101"/>
+      <c r="A109" s="110"/>
+      <c r="B109" s="113"/>
       <c r="C109" s="44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="24"/>
@@ -9987,13 +9987,13 @@
       <c r="BI109" s="24"/>
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A110" s="98"/>
-      <c r="B110" s="101"/>
+      <c r="A110" s="110"/>
+      <c r="B110" s="113"/>
       <c r="C110" s="44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="24"/>
@@ -10056,15 +10056,15 @@
       <c r="BI110" s="24"/>
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A111" s="98"/>
-      <c r="B111" s="101" t="s">
+      <c r="A111" s="110"/>
+      <c r="B111" s="113" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="C111" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="24"/>
@@ -10127,13 +10127,13 @@
       <c r="BI111" s="24"/>
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A112" s="98"/>
-      <c r="B112" s="101"/>
+      <c r="A112" s="110"/>
+      <c r="B112" s="113"/>
       <c r="C112" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="24"/>
@@ -10196,15 +10196,15 @@
       <c r="BI112" s="24"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A113" s="98"/>
+      <c r="A113" s="110"/>
       <c r="B113" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="C113" s="44" t="s">
-        <v>312</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>313</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="24"/>
@@ -10267,15 +10267,15 @@
       <c r="BI113" s="24"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A114" s="98"/>
-      <c r="B114" s="88" t="s">
+      <c r="A114" s="110"/>
+      <c r="B114" s="100" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="C114" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="24"/>
@@ -10338,13 +10338,13 @@
       <c r="BI114" s="24"/>
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A115" s="98"/>
-      <c r="B115" s="90"/>
+      <c r="A115" s="110"/>
+      <c r="B115" s="102"/>
       <c r="C115" s="44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="24"/>
@@ -10407,15 +10407,15 @@
       <c r="BI115" s="24"/>
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A116" s="97"/>
+      <c r="A116" s="109"/>
       <c r="B116" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="C116" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>321</v>
       </c>
       <c r="E116" s="23"/>
       <c r="F116" s="24"/>
@@ -10478,18 +10478,18 @@
       <c r="BI116" s="24"/>
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B118" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="C118" s="102"/>
-      <c r="D118" s="102"/>
-      <c r="E118" s="102"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="102"/>
-      <c r="H118" s="102"/>
-      <c r="I118" s="102"/>
-      <c r="J118" s="102"/>
-      <c r="K118" s="102"/>
+      <c r="B118" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C118" s="114"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="114"/>
+      <c r="G118" s="114"/>
+      <c r="H118" s="114"/>
+      <c r="I118" s="114"/>
+      <c r="J118" s="114"/>
+      <c r="K118" s="114"/>
       <c r="L118" s="48"/>
       <c r="M118" s="48"/>
       <c r="N118" s="48"/>
@@ -10509,50 +10509,50 @@
       <c r="AB118" s="48"/>
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B119" s="103" t="s">
+      <c r="B119" s="115" t="s">
+        <v>321</v>
+      </c>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115"/>
+      <c r="G119" s="115"/>
+      <c r="H119" s="115"/>
+      <c r="I119" s="115"/>
+      <c r="J119" s="115"/>
+      <c r="K119" s="115"/>
+    </row>
+    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B120" s="116" t="s">
+        <v>322</v>
+      </c>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="116"/>
+      <c r="H120" s="116"/>
+      <c r="I120" s="116"/>
+      <c r="J120" s="116"/>
+      <c r="K120" s="116"/>
+    </row>
+    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B121" s="117" t="s">
         <v>323</v>
       </c>
-      <c r="C119" s="103"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="103"/>
-    </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B120" s="104" t="s">
-        <v>324</v>
-      </c>
-      <c r="C120" s="104"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
-      <c r="F120" s="104"/>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104"/>
-      <c r="I120" s="104"/>
-      <c r="J120" s="104"/>
-      <c r="K120" s="104"/>
-    </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B121" s="105" t="s">
-        <v>325</v>
-      </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="117"/>
+      <c r="G121" s="117"/>
+      <c r="H121" s="117"/>
+      <c r="I121" s="117"/>
+      <c r="J121" s="117"/>
+      <c r="K121" s="117"/>
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -10622,8 +10622,8 @@
   <dimension ref="A1:BI121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7980" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="E3" sqref="E1:BI1048576"/>
+      <pane ySplit="7980" topLeftCell="A5"/>
+      <selection activeCell="T4" sqref="T4"/>
       <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
@@ -10655,115 +10655,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="68" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="76" t="s">
+      <c r="AE1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="78"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="90"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AQ1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="93"/>
       <c r="AU1" s="1"/>
-      <c r="AV1" s="68" t="s">
+      <c r="AV1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
       <c r="AY1" s="1"/>
-      <c r="AZ1" s="65" t="s">
+      <c r="AZ1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="BF1" s="1"/>
-      <c r="BG1" s="68" t="s">
+      <c r="BG1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
     </row>
     <row r="2" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="106">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="118">
         <v>1</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="49">
         <v>2</v>
       </c>
       <c r="H2" s="49">
         <v>3</v>
       </c>
-      <c r="I2" s="106">
+      <c r="I2" s="118">
         <v>4</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="49">
         <v>5</v>
       </c>
       <c r="L2" s="49">
         <v>6</v>
       </c>
-      <c r="M2" s="106">
+      <c r="M2" s="118">
         <v>7</v>
       </c>
-      <c r="N2" s="106"/>
+      <c r="N2" s="118"/>
       <c r="O2" s="49">
         <v>8</v>
       </c>
@@ -10774,10 +10774,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="106">
+      <c r="S2" s="118">
         <v>1</v>
       </c>
-      <c r="T2" s="106"/>
+      <c r="T2" s="118"/>
       <c r="U2" s="49">
         <v>2</v>
       </c>
@@ -10791,11 +10791,11 @@
       <c r="Y2" s="49">
         <v>3</v>
       </c>
-      <c r="Z2" s="106">
+      <c r="Z2" s="118">
         <v>4</v>
       </c>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
       <c r="AC2" s="49">
         <v>5</v>
       </c>
@@ -10885,10 +10885,10 @@
       </c>
     </row>
     <row r="3" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="49">
         <v>1</v>
       </c>
@@ -11046,10 +11046,10 @@
       </c>
     </row>
     <row r="4" spans="1:61" s="20" customFormat="1" ht="329" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
@@ -11091,129 +11091,129 @@
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="AD4" s="18"/>
       <c r="AE4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AM4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AN4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AO4" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="AN4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="AP4" s="18"/>
       <c r="AQ4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AT4" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="AS4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="AU4" s="18"/>
       <c r="AV4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AW4" s="19" t="s">
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AX4" s="19" t="s">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="50" t="s">
         <v>50</v>
-      </c>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="50" t="s">
-        <v>52</v>
       </c>
       <c r="BD4" s="18"/>
       <c r="BE4" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BF4" s="18"/>
       <c r="BG4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BH4" s="19" t="s">
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A5" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="BI4" s="19" t="s">
+      <c r="B5" s="119" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="C5" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="D5" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="24"/>
@@ -11274,13 +11274,13 @@
       <c r="BI5" s="25"/>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="120"/>
-      <c r="C6" s="119" t="s">
-        <v>61</v>
+      <c r="C6" s="65" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
@@ -11341,13 +11341,13 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A7" s="83"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="120"/>
-      <c r="C7" s="121" t="s">
-        <v>63</v>
+      <c r="C7" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -11408,13 +11408,13 @@
       <c r="BI7" s="25"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="120"/>
-      <c r="C8" s="119" t="s">
-        <v>65</v>
+      <c r="C8" s="65" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -11475,13 +11475,13 @@
       <c r="BI8" s="25"/>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="120"/>
-      <c r="C9" s="119" t="s">
-        <v>67</v>
+      <c r="C9" s="65" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -11542,13 +11542,13 @@
       <c r="BI9" s="25"/>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="120"/>
-      <c r="C10" s="119" t="s">
-        <v>69</v>
+      <c r="C10" s="65" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -11609,13 +11609,13 @@
       <c r="BI10" s="24"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="120"/>
-      <c r="C11" s="121" t="s">
-        <v>71</v>
+      <c r="C11" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -11676,13 +11676,13 @@
       <c r="BI11" s="24"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="120"/>
-      <c r="C12" s="119" t="s">
-        <v>73</v>
+      <c r="C12" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -11743,13 +11743,13 @@
       <c r="BI12" s="24"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A13" s="83"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="119" t="s">
-        <v>75</v>
+      <c r="A13" s="95"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="65" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -11810,15 +11810,15 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="121" t="s">
-        <v>71</v>
+      <c r="A14" s="95"/>
+      <c r="B14" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -11879,13 +11879,13 @@
       <c r="BI14" s="24"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="119" t="s">
-        <v>73</v>
+      <c r="A15" s="95"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -11946,15 +11946,15 @@
       <c r="BI15" s="24"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="118" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -12015,13 +12015,13 @@
       <c r="BI16" s="24"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="120"/>
-      <c r="C17" s="119" t="s">
-        <v>81</v>
+      <c r="C17" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -12082,15 +12082,15 @@
       <c r="BI17" s="24"/>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="123" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -12151,15 +12151,15 @@
       <c r="BI18" s="24"/>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="125" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -12220,17 +12220,17 @@
       <c r="BI19" s="24"/>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="D20" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -12291,13 +12291,13 @@
       <c r="BI20" s="24"/>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A21" s="83"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="120"/>
-      <c r="C21" s="119" t="s">
-        <v>93</v>
+      <c r="C21" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -12358,13 +12358,13 @@
       <c r="BI21" s="24"/>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A22" s="83"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="120"/>
-      <c r="C22" s="119" t="s">
-        <v>95</v>
+      <c r="C22" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -12425,13 +12425,13 @@
       <c r="BI22" s="24"/>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A23" s="83"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="120"/>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -12492,13 +12492,13 @@
       <c r="BI23" s="24"/>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="120"/>
-      <c r="C24" s="119" t="s">
-        <v>98</v>
+      <c r="C24" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -12559,13 +12559,13 @@
       <c r="BI24" s="24"/>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A25" s="83"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="120"/>
-      <c r="C25" s="119" t="s">
-        <v>100</v>
+      <c r="C25" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
@@ -12626,13 +12626,13 @@
       <c r="BI25" s="24"/>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="120"/>
-      <c r="C26" s="119" t="s">
-        <v>102</v>
+      <c r="C26" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -12693,13 +12693,13 @@
       <c r="BI26" s="24"/>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A27" s="83"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="120"/>
-      <c r="C27" s="119" t="s">
-        <v>104</v>
+      <c r="C27" s="65" t="s">
+        <v>102</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -12760,13 +12760,13 @@
       <c r="BI27" s="24"/>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="120"/>
-      <c r="C28" s="119" t="s">
-        <v>106</v>
+      <c r="C28" s="65" t="s">
+        <v>104</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -12827,13 +12827,13 @@
       <c r="BI28" s="24"/>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="120"/>
-      <c r="C29" s="119" t="s">
-        <v>108</v>
+      <c r="C29" s="65" t="s">
+        <v>106</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -12894,13 +12894,13 @@
       <c r="BI29" s="24"/>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="120"/>
-      <c r="C30" s="119" t="s">
-        <v>110</v>
+      <c r="C30" s="65" t="s">
+        <v>108</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -12961,13 +12961,13 @@
       <c r="BI30" s="24"/>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A31" s="83"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="120"/>
-      <c r="C31" s="119" t="s">
-        <v>112</v>
+      <c r="C31" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
@@ -13028,13 +13028,13 @@
       <c r="BI31" s="24"/>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="120"/>
-      <c r="C32" s="119" t="s">
-        <v>114</v>
+      <c r="C32" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -13095,13 +13095,13 @@
       <c r="BI32" s="24"/>
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="120"/>
-      <c r="C33" s="119" t="s">
-        <v>116</v>
+      <c r="C33" s="65" t="s">
+        <v>114</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
@@ -13162,13 +13162,13 @@
       <c r="BI33" s="24"/>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="120"/>
-      <c r="C34" s="119" t="s">
-        <v>118</v>
+      <c r="C34" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24"/>
@@ -13229,13 +13229,13 @@
       <c r="BI34" s="24"/>
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="120"/>
-      <c r="C35" s="119" t="s">
-        <v>120</v>
+      <c r="C35" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24"/>
@@ -13296,13 +13296,13 @@
       <c r="BI35" s="24"/>
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="120"/>
-      <c r="C36" s="119" t="s">
-        <v>122</v>
+      <c r="C36" s="65" t="s">
+        <v>120</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
@@ -13363,13 +13363,13 @@
       <c r="BI36" s="24"/>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="120"/>
-      <c r="C37" s="119" t="s">
-        <v>124</v>
+      <c r="C37" s="65" t="s">
+        <v>122</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24"/>
@@ -13430,13 +13430,13 @@
       <c r="BI37" s="24"/>
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="120"/>
-      <c r="C38" s="119" t="s">
-        <v>126</v>
+      <c r="C38" s="65" t="s">
+        <v>124</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24"/>
@@ -13497,13 +13497,13 @@
       <c r="BI38" s="24"/>
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="119" t="s">
-        <v>128</v>
+      <c r="A39" s="95"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="65" t="s">
+        <v>126</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
@@ -13564,15 +13564,15 @@
       <c r="BI39" s="24"/>
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="126" t="s">
+      <c r="A40" s="95"/>
+      <c r="B40" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
@@ -13633,15 +13633,15 @@
       <c r="BI40" s="24"/>
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="127" t="s">
+      <c r="A41" s="95"/>
+      <c r="B41" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="C41" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
@@ -13702,13 +13702,13 @@
       <c r="BI41" s="24"/>
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="124" t="s">
-        <v>136</v>
+      <c r="A42" s="95"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="68" t="s">
+        <v>134</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
@@ -13769,13 +13769,13 @@
       <c r="BI42" s="24"/>
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="124" t="s">
-        <v>138</v>
+      <c r="A43" s="95"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="68" t="s">
+        <v>136</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
@@ -13836,13 +13836,13 @@
       <c r="BI43" s="24"/>
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="124" t="s">
-        <v>140</v>
+      <c r="A44" s="95"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="68" t="s">
+        <v>138</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
@@ -13903,13 +13903,13 @@
       <c r="BI44" s="24"/>
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="124" t="s">
-        <v>142</v>
+      <c r="A45" s="95"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="68" t="s">
+        <v>140</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
@@ -13970,13 +13970,13 @@
       <c r="BI45" s="24"/>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="124" t="s">
-        <v>144</v>
+      <c r="A46" s="95"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="68" t="s">
+        <v>142</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="24"/>
@@ -14037,13 +14037,13 @@
       <c r="BI46" s="24"/>
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="124" t="s">
-        <v>146</v>
+      <c r="A47" s="95"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="68" t="s">
+        <v>144</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="24"/>
@@ -14104,13 +14104,13 @@
       <c r="BI47" s="24"/>
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="129"/>
-      <c r="C48" s="124" t="s">
-        <v>148</v>
+      <c r="A48" s="95"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="68" t="s">
+        <v>146</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24"/>
@@ -14171,15 +14171,15 @@
       <c r="BI48" s="24"/>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="127" t="s">
+      <c r="A49" s="95"/>
+      <c r="B49" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="C49" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="24"/>
@@ -14240,13 +14240,13 @@
       <c r="BI49" s="24"/>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="129"/>
-      <c r="C50" s="124" t="s">
-        <v>153</v>
+      <c r="A50" s="96"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
@@ -14370,17 +14370,17 @@
       <c r="BI51" s="26"/>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A52" s="96" t="s">
+      <c r="A52" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="130" t="s">
+      <c r="D52" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="C52" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24"/>
@@ -14441,13 +14441,13 @@
       <c r="BI52" s="24"/>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A53" s="98"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="124" t="s">
-        <v>159</v>
+      <c r="A53" s="110"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="68" t="s">
+        <v>157</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
@@ -14508,15 +14508,15 @@
       <c r="BI53" s="24"/>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="132" t="s">
+      <c r="A54" s="110"/>
+      <c r="B54" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>163</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
@@ -14577,15 +14577,15 @@
       <c r="BI54" s="24"/>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A55" s="98"/>
-      <c r="B55" s="127" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
@@ -14646,13 +14646,13 @@
       <c r="BI55" s="24"/>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A56" s="98"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="124" t="s">
-        <v>167</v>
+      <c r="A56" s="110"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="68" t="s">
+        <v>165</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
@@ -14713,13 +14713,13 @@
       <c r="BI56" s="24"/>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A57" s="97"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="124" t="s">
-        <v>169</v>
+      <c r="A57" s="109"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="68" t="s">
+        <v>167</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
@@ -14843,17 +14843,17 @@
       <c r="BI58" s="26"/>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="133" t="s">
+      <c r="D59" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C59" s="124" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
@@ -14914,15 +14914,15 @@
       <c r="BI59" s="24"/>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A60" s="98"/>
-      <c r="B60" s="133" t="s">
+      <c r="A60" s="110"/>
+      <c r="B60" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="124" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24"/>
@@ -14983,15 +14983,15 @@
       <c r="BI60" s="24"/>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A61" s="98"/>
-      <c r="B61" s="133" t="s">
+      <c r="A61" s="110"/>
+      <c r="B61" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C61" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
@@ -15052,15 +15052,15 @@
       <c r="BI61" s="24"/>
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A62" s="98"/>
-      <c r="B62" s="133" t="s">
+      <c r="A62" s="110"/>
+      <c r="B62" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="C62" s="124" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="24"/>
@@ -15121,15 +15121,15 @@
       <c r="BI62" s="24"/>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A63" s="98"/>
-      <c r="B63" s="127" t="s">
+      <c r="A63" s="110"/>
+      <c r="B63" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="C63" s="124" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
@@ -15190,13 +15190,13 @@
       <c r="BI63" s="24"/>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A64" s="98"/>
-      <c r="B64" s="129"/>
-      <c r="C64" s="124" t="s">
-        <v>187</v>
+      <c r="A64" s="110"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="68" t="s">
+        <v>185</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="24"/>
@@ -15257,15 +15257,15 @@
       <c r="BI64" s="24"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A65" s="98"/>
-      <c r="B65" s="133" t="s">
+      <c r="A65" s="110"/>
+      <c r="B65" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="C65" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>191</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="24"/>
@@ -15326,15 +15326,15 @@
       <c r="BI65" s="24"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A66" s="97"/>
-      <c r="B66" s="134" t="s">
+      <c r="A66" s="109"/>
+      <c r="B66" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="C66" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="24"/>
@@ -15458,17 +15458,17 @@
       <c r="BI67" s="26"/>
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A68" s="96" t="s">
+      <c r="A68" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="127" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="135" t="s">
+      <c r="D68" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="C68" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="24"/>
@@ -15529,13 +15529,13 @@
       <c r="BI68" s="24"/>
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A69" s="98"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="124" t="s">
-        <v>199</v>
+      <c r="A69" s="110"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="24"/>
@@ -15596,15 +15596,15 @@
       <c r="BI69" s="24"/>
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A70" s="98"/>
-      <c r="B70" s="135" t="s">
+      <c r="A70" s="110"/>
+      <c r="B70" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="24"/>
@@ -15665,13 +15665,13 @@
       <c r="BI70" s="24"/>
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A71" s="98"/>
-      <c r="B71" s="135"/>
-      <c r="C71" s="124" t="s">
-        <v>204</v>
+      <c r="A71" s="110"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="68" t="s">
+        <v>202</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24"/>
@@ -15732,15 +15732,15 @@
       <c r="BI71" s="24"/>
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A72" s="98"/>
-      <c r="B72" s="133" t="s">
+      <c r="A72" s="110"/>
+      <c r="B72" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="C72" s="124" t="s">
-        <v>207</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>208</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="24"/>
@@ -15801,15 +15801,15 @@
       <c r="BI72" s="24"/>
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A73" s="98"/>
-      <c r="B73" s="133" t="s">
+      <c r="A73" s="110"/>
+      <c r="B73" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="C73" s="124" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="24"/>
@@ -15870,15 +15870,15 @@
       <c r="BI73" s="24"/>
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A74" s="98"/>
-      <c r="B74" s="133" t="s">
+      <c r="A74" s="110"/>
+      <c r="B74" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="C74" s="124" t="s">
-        <v>213</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="24"/>
@@ -15939,15 +15939,15 @@
       <c r="BI74" s="24"/>
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A75" s="98"/>
-      <c r="B75" s="135" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="C75" s="136" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>217</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -16008,13 +16008,13 @@
       <c r="BI75" s="24"/>
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A76" s="98"/>
-      <c r="B76" s="135"/>
-      <c r="C76" s="136" t="s">
-        <v>218</v>
+      <c r="A76" s="110"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="74" t="s">
+        <v>216</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -16075,13 +16075,13 @@
       <c r="BI76" s="24"/>
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A77" s="98"/>
-      <c r="B77" s="135"/>
-      <c r="C77" s="136" t="s">
-        <v>220</v>
+      <c r="A77" s="110"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="74" t="s">
+        <v>218</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -16142,15 +16142,15 @@
       <c r="BI77" s="24"/>
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A78" s="97"/>
-      <c r="B78" s="137" t="s">
+      <c r="A78" s="109"/>
+      <c r="B78" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="C78" s="136" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -16211,17 +16211,17 @@
       <c r="BI78" s="24"/>
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="127" t="s">
+      <c r="D79" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="C79" s="124" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>228</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="24"/>
@@ -16282,13 +16282,13 @@
       <c r="BI79" s="24"/>
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A80" s="98"/>
-      <c r="B80" s="129"/>
-      <c r="C80" s="124" t="s">
-        <v>229</v>
+      <c r="A80" s="110"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="68" t="s">
+        <v>227</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="24"/>
@@ -16349,15 +16349,15 @@
       <c r="BI80" s="24"/>
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A81" s="98"/>
-      <c r="B81" s="123" t="s">
+      <c r="A81" s="110"/>
+      <c r="B81" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="C81" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>233</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="24"/>
@@ -16418,15 +16418,15 @@
       <c r="BI81" s="24"/>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A82" s="98"/>
-      <c r="B82" s="135" t="s">
+      <c r="A82" s="110"/>
+      <c r="B82" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="C82" s="136" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="24"/>
@@ -16487,13 +16487,13 @@
       <c r="BI82" s="24"/>
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A83" s="98"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="136" t="s">
-        <v>237</v>
+      <c r="A83" s="110"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="74" t="s">
+        <v>235</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="24"/>
@@ -16554,15 +16554,15 @@
       <c r="BI83" s="24"/>
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A84" s="98"/>
-      <c r="B84" s="137" t="s">
+      <c r="A84" s="110"/>
+      <c r="B84" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="C84" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="24"/>
@@ -16623,15 +16623,15 @@
       <c r="BI84" s="24"/>
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A85" s="98"/>
-      <c r="B85" s="127" t="s">
+      <c r="A85" s="110"/>
+      <c r="B85" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C85" s="136" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="24"/>
@@ -16692,13 +16692,13 @@
       <c r="BI85" s="24"/>
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A86" s="98"/>
-      <c r="B86" s="128"/>
-      <c r="C86" s="136" t="s">
-        <v>245</v>
+      <c r="A86" s="110"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="74" t="s">
+        <v>243</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="24"/>
@@ -16759,13 +16759,13 @@
       <c r="BI86" s="24"/>
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A87" s="98"/>
-      <c r="B87" s="129"/>
-      <c r="C87" s="136" t="s">
-        <v>247</v>
+      <c r="A87" s="110"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="24"/>
@@ -16826,15 +16826,15 @@
       <c r="BI87" s="24"/>
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A88" s="98"/>
-      <c r="B88" s="137" t="s">
+      <c r="A88" s="110"/>
+      <c r="B88" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="C88" s="136" t="s">
-        <v>250</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -16895,15 +16895,15 @@
       <c r="BI88" s="24"/>
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A89" s="98"/>
-      <c r="B89" s="127" t="s">
+      <c r="A89" s="110"/>
+      <c r="B89" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="C89" s="136" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -16964,13 +16964,13 @@
       <c r="BI89" s="24"/>
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A90" s="98"/>
-      <c r="B90" s="128"/>
-      <c r="C90" s="136" t="s">
-        <v>255</v>
+      <c r="A90" s="110"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="74" t="s">
+        <v>253</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -17031,13 +17031,13 @@
       <c r="BI90" s="24"/>
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A91" s="98"/>
-      <c r="B91" s="128"/>
-      <c r="C91" s="136" t="s">
-        <v>245</v>
+      <c r="A91" s="110"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="74" t="s">
+        <v>243</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -17098,13 +17098,13 @@
       <c r="BI91" s="24"/>
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A92" s="97"/>
-      <c r="B92" s="129"/>
-      <c r="C92" s="136" t="s">
-        <v>247</v>
+      <c r="A92" s="109"/>
+      <c r="B92" s="124"/>
+      <c r="C92" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -17165,17 +17165,17 @@
       <c r="BI92" s="24"/>
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A93" s="96" t="s">
+      <c r="A93" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="122" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="127" t="s">
+      <c r="D93" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="C93" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>260</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
@@ -17236,13 +17236,13 @@
       <c r="BI93" s="24"/>
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A94" s="97"/>
-      <c r="B94" s="129"/>
-      <c r="C94" s="136" t="s">
-        <v>261</v>
+      <c r="A94" s="109"/>
+      <c r="B94" s="124"/>
+      <c r="C94" s="74" t="s">
+        <v>259</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -17366,17 +17366,17 @@
       <c r="BI95" s="26"/>
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A96" s="96" t="s">
+      <c r="A96" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="135" t="s">
+      <c r="D96" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="C96" s="136" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -17437,13 +17437,13 @@
       <c r="BI96" s="24"/>
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A97" s="98"/>
-      <c r="B97" s="135"/>
-      <c r="C97" s="136" t="s">
-        <v>267</v>
+      <c r="A97" s="110"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="74" t="s">
+        <v>265</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
@@ -17504,15 +17504,15 @@
       <c r="BI97" s="24"/>
     </row>
     <row r="98" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="97"/>
-      <c r="B98" s="134" t="s">
+      <c r="A98" s="109"/>
+      <c r="B98" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="C98" s="136" t="s">
-        <v>270</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
@@ -17572,17 +17572,17 @@
       <c r="BI98" s="24"/>
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A99" s="96" t="s">
+      <c r="A99" s="108" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="B99" s="137" t="s">
+      <c r="D99" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="C99" s="136" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>275</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -17643,15 +17643,15 @@
       <c r="BI99" s="24"/>
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A100" s="98"/>
-      <c r="B100" s="134" t="s">
+      <c r="A100" s="110"/>
+      <c r="B100" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="C100" s="136" t="s">
-        <v>277</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -17712,15 +17712,15 @@
       <c r="BI100" s="24"/>
     </row>
     <row r="101" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="97"/>
-      <c r="B101" s="134" t="s">
+      <c r="A101" s="109"/>
+      <c r="B101" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="46" t="s">
         <v>279</v>
-      </c>
-      <c r="C101" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>281</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -17781,17 +17781,17 @@
       <c r="BI101" s="24"/>
     </row>
     <row r="102" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="96" t="s">
+      <c r="A102" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="133" t="s">
+      <c r="D102" s="46" t="s">
         <v>283</v>
-      </c>
-      <c r="C102" s="136" t="s">
-        <v>284</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>285</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -17852,15 +17852,15 @@
       <c r="BI102" s="24"/>
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A103" s="97"/>
-      <c r="B103" s="134" t="s">
+      <c r="A103" s="109"/>
+      <c r="B103" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="C103" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -17984,17 +17984,17 @@
       <c r="BI104" s="26"/>
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A105" s="96" t="s">
+      <c r="A105" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="B105" s="133" t="s">
+      <c r="D105" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="C105" s="124" t="s">
-        <v>291</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="24"/>
@@ -18055,15 +18055,15 @@
       <c r="BI105" s="24"/>
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A106" s="98"/>
-      <c r="B106" s="133" t="s">
+      <c r="A106" s="110"/>
+      <c r="B106" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="C106" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="24"/>
@@ -18124,15 +18124,15 @@
       <c r="BI106" s="24"/>
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A107" s="98"/>
-      <c r="B107" s="133" t="s">
+      <c r="A107" s="110"/>
+      <c r="B107" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="C107" s="124" t="s">
-        <v>297</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="24"/>
@@ -18193,15 +18193,15 @@
       <c r="BI107" s="24"/>
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A108" s="98"/>
-      <c r="B108" s="135" t="s">
+      <c r="A108" s="110"/>
+      <c r="B108" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="D108" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="C108" s="136" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>301</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="24"/>
@@ -18262,13 +18262,13 @@
       <c r="BI108" s="24"/>
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A109" s="98"/>
-      <c r="B109" s="135"/>
-      <c r="C109" s="136" t="s">
-        <v>302</v>
+      <c r="A109" s="110"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="74" t="s">
+        <v>300</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="24"/>
@@ -18329,13 +18329,13 @@
       <c r="BI109" s="24"/>
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A110" s="98"/>
-      <c r="B110" s="135"/>
-      <c r="C110" s="136" t="s">
-        <v>304</v>
+      <c r="A110" s="110"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="74" t="s">
+        <v>302</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="24"/>
@@ -18396,15 +18396,15 @@
       <c r="BI110" s="24"/>
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A111" s="98"/>
-      <c r="B111" s="135" t="s">
+      <c r="A111" s="110"/>
+      <c r="B111" s="127" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="C111" s="136" t="s">
-        <v>307</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="24"/>
@@ -18465,13 +18465,13 @@
       <c r="BI111" s="24"/>
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A112" s="98"/>
-      <c r="B112" s="135"/>
-      <c r="C112" s="136" t="s">
-        <v>309</v>
+      <c r="A112" s="110"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="74" t="s">
+        <v>307</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="24"/>
@@ -18532,15 +18532,15 @@
       <c r="BI112" s="24"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A113" s="98"/>
-      <c r="B113" s="133" t="s">
+      <c r="A113" s="110"/>
+      <c r="B113" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="C113" s="136" t="s">
-        <v>312</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>313</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="24"/>
@@ -18601,15 +18601,15 @@
       <c r="BI113" s="24"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A114" s="98"/>
-      <c r="B114" s="127" t="s">
+      <c r="A114" s="110"/>
+      <c r="B114" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="C114" s="136" t="s">
-        <v>315</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="24"/>
@@ -18670,13 +18670,13 @@
       <c r="BI114" s="24"/>
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A115" s="98"/>
-      <c r="B115" s="129"/>
-      <c r="C115" s="136" t="s">
-        <v>317</v>
+      <c r="A115" s="110"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="74" t="s">
+        <v>315</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="24"/>
@@ -18737,15 +18737,15 @@
       <c r="BI115" s="24"/>
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A116" s="97"/>
-      <c r="B116" s="133" t="s">
+      <c r="A116" s="109"/>
+      <c r="B116" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="C116" s="136" t="s">
-        <v>320</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>321</v>
       </c>
       <c r="E116" s="23"/>
       <c r="F116" s="24"/>
@@ -18806,18 +18806,18 @@
       <c r="BI116" s="24"/>
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B118" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="C118" s="102"/>
-      <c r="D118" s="102"/>
-      <c r="E118" s="102"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="102"/>
-      <c r="H118" s="102"/>
-      <c r="I118" s="102"/>
-      <c r="J118" s="102"/>
-      <c r="K118" s="102"/>
+      <c r="B118" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C118" s="114"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="114"/>
+      <c r="G118" s="114"/>
+      <c r="H118" s="114"/>
+      <c r="I118" s="114"/>
+      <c r="J118" s="114"/>
+      <c r="K118" s="114"/>
       <c r="L118" s="48"/>
       <c r="M118" s="48"/>
       <c r="N118" s="48"/>
@@ -18837,46 +18837,46 @@
       <c r="AB118" s="48"/>
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B119" s="103" t="s">
+      <c r="B119" s="115" t="s">
+        <v>321</v>
+      </c>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115"/>
+      <c r="G119" s="115"/>
+      <c r="H119" s="115"/>
+      <c r="I119" s="115"/>
+      <c r="J119" s="115"/>
+      <c r="K119" s="115"/>
+    </row>
+    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B120" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="116"/>
+      <c r="H120" s="116"/>
+      <c r="I120" s="116"/>
+      <c r="J120" s="116"/>
+      <c r="K120" s="116"/>
+    </row>
+    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B121" s="128" t="s">
         <v>323</v>
       </c>
-      <c r="C119" s="103"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="103"/>
-    </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B120" s="104" t="s">
-        <v>334</v>
-      </c>
-      <c r="C120" s="104"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
-      <c r="F120" s="104"/>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104"/>
-      <c r="I120" s="104"/>
-      <c r="J120" s="104"/>
-      <c r="K120" s="104"/>
-    </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B121" s="107" t="s">
-        <v>325</v>
-      </c>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="117"/>
+      <c r="G121" s="117"/>
+      <c r="H121" s="117"/>
+      <c r="I121" s="117"/>
+      <c r="J121" s="117"/>
+      <c r="K121" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -18941,8 +18941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E044E51-3011-4D4C-8F27-C342027625FA}">
   <dimension ref="A1:BI71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BK20" sqref="BK20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="BL40" sqref="BL40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18972,119 +18972,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A1" s="106"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="76" t="s">
+      <c r="AE1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="78"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="90"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AQ1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="93"/>
       <c r="AU1" s="1"/>
-      <c r="AV1" s="68" t="s">
+      <c r="AV1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
       <c r="AY1" s="1"/>
-      <c r="AZ1" s="65" t="s">
+      <c r="AZ1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="BF1" s="1"/>
-      <c r="BG1" s="68" t="s">
+      <c r="BG1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="106">
+        <v>328</v>
+      </c>
+      <c r="E2" s="118">
         <v>1</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="49">
         <v>2</v>
       </c>
       <c r="H2" s="49">
         <v>3</v>
       </c>
-      <c r="I2" s="106">
+      <c r="I2" s="118">
         <v>4</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="49">
         <v>5</v>
       </c>
       <c r="L2" s="49">
         <v>6</v>
       </c>
-      <c r="M2" s="106">
+      <c r="M2" s="118">
         <v>7</v>
       </c>
-      <c r="N2" s="106"/>
+      <c r="N2" s="118"/>
       <c r="O2" s="49">
         <v>8</v>
       </c>
@@ -19095,10 +19095,10 @@
         <v>10</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="106">
+      <c r="S2" s="118">
         <v>1</v>
       </c>
-      <c r="T2" s="106"/>
+      <c r="T2" s="118"/>
       <c r="U2" s="49">
         <v>2</v>
       </c>
@@ -19112,11 +19112,11 @@
       <c r="Y2" s="49">
         <v>3</v>
       </c>
-      <c r="Z2" s="106">
+      <c r="Z2" s="118">
         <v>4</v>
       </c>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
       <c r="AC2" s="49">
         <v>5</v>
       </c>
@@ -19206,11 +19206,11 @@
       </c>
     </row>
     <row r="3" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="64" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E3" s="49">
         <v>1</v>
@@ -19370,16 +19370,16 @@
     </row>
     <row r="4" spans="1:61" ht="329" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>327</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>329</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>10</v>
@@ -19422,122 +19422,122 @@
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="AD4" s="18"/>
       <c r="AE4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AM4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AL4" s="19" t="s">
+      <c r="AN4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="19" t="s">
+      <c r="AO4" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="AN4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="AP4" s="18"/>
       <c r="AQ4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AT4" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="AS4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="AU4" s="18"/>
       <c r="AV4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AW4" s="19" t="s">
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="AX4" s="19" t="s">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="50" t="s">
         <v>50</v>
-      </c>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="50" t="s">
-        <v>52</v>
       </c>
       <c r="BD4" s="18"/>
       <c r="BE4" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BF4" s="18"/>
       <c r="BG4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BH4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI4" s="19" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="5" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="130">
         <v>1</v>
       </c>
       <c r="C5" s="24">
@@ -19605,8 +19605,8 @@
       <c r="BI5" s="25"/>
     </row>
     <row r="6" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="24">
         <v>2</v>
       </c>
@@ -19672,7 +19672,7 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="108"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="24">
         <v>2</v>
       </c>
@@ -19741,7 +19741,7 @@
       <c r="BI7" s="25"/>
     </row>
     <row r="8" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="108"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="24">
         <v>3</v>
       </c>
@@ -19810,8 +19810,8 @@
       <c r="BI8" s="25"/>
     </row>
     <row r="9" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="108"/>
-      <c r="B9" s="109">
+      <c r="A9" s="129"/>
+      <c r="B9" s="130">
         <v>4</v>
       </c>
       <c r="C9" s="24">
@@ -19879,8 +19879,8 @@
       <c r="BI9" s="25"/>
     </row>
     <row r="10" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="24">
         <v>2</v>
       </c>
@@ -19946,7 +19946,7 @@
       <c r="BI10" s="24"/>
     </row>
     <row r="11" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="24">
         <v>5</v>
       </c>
@@ -20015,7 +20015,7 @@
       <c r="BI11" s="24"/>
     </row>
     <row r="12" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="108"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="24">
         <v>6</v>
       </c>
@@ -20084,8 +20084,8 @@
       <c r="BI12" s="24"/>
     </row>
     <row r="13" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109">
+      <c r="A13" s="129"/>
+      <c r="B13" s="130">
         <v>7</v>
       </c>
       <c r="C13" s="24">
@@ -20153,8 +20153,8 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="24">
         <v>2</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="BI14" s="24"/>
     </row>
     <row r="15" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="108"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="24">
         <v>8</v>
       </c>
@@ -20289,7 +20289,7 @@
       <c r="BI15" s="24"/>
     </row>
     <row r="16" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="108"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="24">
         <v>9</v>
       </c>
@@ -20358,7 +20358,7 @@
       <c r="BI16" s="24"/>
     </row>
     <row r="17" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="24">
         <v>10</v>
       </c>
@@ -20490,17 +20490,17 @@
       <c r="BI18" s="58"/>
     </row>
     <row r="19" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="109">
+      <c r="B19" s="130">
         <v>1</v>
       </c>
       <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -20561,13 +20561,13 @@
       <c r="BI19" s="24"/>
     </row>
     <row r="20" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="24">
         <v>2</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -20628,7 +20628,7 @@
       <c r="BI20" s="24"/>
     </row>
     <row r="21" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="24">
         <v>2</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -20760,7 +20760,7 @@
       <c r="BI22" s="58"/>
     </row>
     <row r="23" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="129" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="24">
@@ -20770,7 +20770,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -20831,7 +20831,7 @@
       <c r="BI23" s="24"/>
     </row>
     <row r="24" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="24">
         <v>2</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -20900,7 +20900,7 @@
       <c r="BI24" s="24"/>
     </row>
     <row r="25" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="24">
         <v>3</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
@@ -20969,15 +20969,15 @@
       <c r="BI25" s="24"/>
     </row>
     <row r="26" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109">
+      <c r="A26" s="129"/>
+      <c r="B26" s="130">
         <v>4</v>
       </c>
       <c r="C26" s="24">
         <v>1</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -21038,13 +21038,13 @@
       <c r="BI26" s="24"/>
     </row>
     <row r="27" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="109"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="24">
         <v>2</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -21105,13 +21105,13 @@
       <c r="BI27" s="24"/>
     </row>
     <row r="28" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="109"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="24">
         <v>3</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -21172,7 +21172,7 @@
       <c r="BI28" s="24"/>
     </row>
     <row r="29" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="108"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="24">
         <v>5</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -21304,7 +21304,7 @@
       <c r="BI30" s="58"/>
     </row>
     <row r="31" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="131" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="24">
@@ -21314,7 +21314,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
@@ -21375,7 +21375,7 @@
       <c r="BI31" s="24"/>
     </row>
     <row r="32" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="24">
         <v>2</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -21444,7 +21444,7 @@
       <c r="BI32" s="24"/>
     </row>
     <row r="33" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="111"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="24">
         <v>3</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
@@ -21513,7 +21513,7 @@
       <c r="BI33" s="24"/>
     </row>
     <row r="34" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="24">
         <v>4</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24"/>
@@ -21582,7 +21582,7 @@
       <c r="BI34" s="24"/>
     </row>
     <row r="35" spans="1:61" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="24">
         <v>5</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24"/>
@@ -21651,7 +21651,7 @@
       <c r="BI35" s="24"/>
     </row>
     <row r="36" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="24">
         <v>6</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
@@ -21720,7 +21720,7 @@
       <c r="BI36" s="24"/>
     </row>
     <row r="37" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="24">
         <v>7</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24"/>
@@ -21789,7 +21789,7 @@
       <c r="BI37" s="24"/>
     </row>
     <row r="38" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="24">
         <v>8</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24"/>
@@ -21858,7 +21858,7 @@
       <c r="BI38" s="24"/>
     </row>
     <row r="39" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="24">
         <v>9</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
@@ -21927,7 +21927,7 @@
       <c r="BI39" s="24"/>
     </row>
     <row r="40" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="24">
         <v>10</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
@@ -21996,7 +21996,7 @@
       <c r="BI40" s="24"/>
     </row>
     <row r="41" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="112"/>
+      <c r="A41" s="133"/>
       <c r="B41" s="24">
         <v>11</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="24"/>
@@ -22128,7 +22128,7 @@
       <c r="BI42" s="58"/>
     </row>
     <row r="43" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="94" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="24">
@@ -22138,7 +22138,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
@@ -22199,7 +22199,7 @@
       <c r="BI43" s="24"/>
     </row>
     <row r="44" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="24">
         <v>2</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
@@ -22268,7 +22268,7 @@
       <c r="BI44" s="24"/>
     </row>
     <row r="45" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="24">
         <v>3</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
@@ -22337,7 +22337,7 @@
       <c r="BI45" s="24"/>
     </row>
     <row r="46" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
+      <c r="A46" s="96"/>
       <c r="B46" s="24">
         <v>4</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="24"/>
@@ -22469,7 +22469,7 @@
       <c r="BI47" s="58"/>
     </row>
     <row r="48" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="129" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="24">
@@ -22479,7 +22479,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="24"/>
@@ -22540,7 +22540,7 @@
       <c r="BI48" s="24"/>
     </row>
     <row r="49" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="108"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="24">
         <v>2</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="24"/>
@@ -22609,7 +22609,7 @@
       <c r="BI49" s="24"/>
     </row>
     <row r="50" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="108"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="24">
         <v>3</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
@@ -22741,7 +22741,7 @@
       <c r="BI51" s="26"/>
     </row>
     <row r="52" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="24">
@@ -22750,8 +22750,8 @@
       <c r="C52" s="24">
         <v>1</v>
       </c>
-      <c r="D52" s="113" t="s">
-        <v>51</v>
+      <c r="D52" s="134" t="s">
+        <v>49</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24"/>
@@ -22812,14 +22812,14 @@
       <c r="BI52" s="24"/>
     </row>
     <row r="53" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="24">
         <v>2</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="114"/>
+      <c r="D53" s="135"/>
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -22879,14 +22879,14 @@
       <c r="BI53" s="24"/>
     </row>
     <row r="54" spans="1:61" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="24">
         <v>3</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="115"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -22946,7 +22946,7 @@
       <c r="BI54" s="24"/>
     </row>
     <row r="55" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="84"/>
+      <c r="A55" s="96"/>
       <c r="B55" s="24">
         <v>4</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
@@ -23088,7 +23088,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
@@ -23212,7 +23212,7 @@
       <c r="BI58" s="26"/>
     </row>
     <row r="59" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="129" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="24">
@@ -23222,7 +23222,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
@@ -23283,7 +23283,7 @@
       <c r="BI59" s="24"/>
     </row>
     <row r="60" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="108"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="24">
         <v>2</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24"/>
@@ -23352,7 +23352,7 @@
       <c r="BI60" s="24"/>
     </row>
     <row r="61" spans="1:61" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="108"/>
+      <c r="A61" s="129"/>
       <c r="B61" s="24">
         <v>3</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="24"/>
@@ -23421,60 +23421,60 @@
       <c r="BI61" s="24"/>
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="D63" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
+      <c r="D63" s="137" t="s">
+        <v>320</v>
+      </c>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="137"/>
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="D64" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="103"/>
+      <c r="D64" s="115" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="115"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="115"/>
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
     </row>
     <row r="65" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D65" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
+      <c r="D65" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="138"/>
+      <c r="L65" s="138"/>
+      <c r="M65" s="138"/>
     </row>
     <row r="66" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="D66" s="105" t="s">
-        <v>333</v>
-      </c>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="105"/>
-      <c r="L66" s="105"/>
-      <c r="M66" s="105"/>
+      <c r="D66" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
     </row>
     <row r="68" spans="4:28" x14ac:dyDescent="0.2">
       <c r="E68" s="63"/>
